--- a/only_school_names.xlsx
+++ b/only_school_names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\sharma\work\python_terra\school_dec_USnews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\sharma\work\python_terra\school_dec_USnews\pipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0CA3E-9945-4BEA-A871-CC51E585EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94D5AA-8781-4156-8B04-5F3EBD3162EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>US news for High School: Kreiva Academy Public Charter School (H) located in Manchester, New Hampshire</t>
   </si>
@@ -45,159 +45,6 @@
   </si>
   <si>
     <t>US news for High School: Manchester Memorial High School located in Manchester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Manchester School of Technology (High School) located in Manchester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Manchester West High School located in Manchester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Spark Academy of Advanced Technologies Charter School located in Manchester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: The Founders Academy Charter School (H) located in Manchester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Academy for Science and Design Charter (H) located in Nashua, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Brentwood Academy located in Nashua, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Nashua High School North located in Nashua, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Nashua High School South located in Nashua, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Concord High School located in Concord, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Next Charter School located in Derry, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Pinkerton Academy located in Derry, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Dover Senior High School located in Dover, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Bud Carlson Academy located in Rochester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Spaulding High School located in Rochester, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Arts Academy of New Hampshire Chartered Public High School located in Salem, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Salem High School located in Salem, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Merrimack High School located in Merrimack, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Londonderry Senior High School located in Londonderry, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Alvirne High School located in Hudson, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Bedford High School located in Bedford, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Gathering Waters Charter School (H) located in Keene, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Keene High School located in Keene, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Making Community Connections Charter School - Monadnock located in Keene, New Hampshire</t>
-  </si>
-  <si>
-    <t>US news for High School: Casco Bay High School located in Portland, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Deering High School located in Portland, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Portland High School located in Portland, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Lewiston High School located in Lewiston, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Bangor High School located in Bangor, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Arthur R. Gould Sch--LCYDC located in South Portland, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: South Portland High School located in South Portland, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Edward Little High School located in Auburn, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Maine Connections Academy located in Scarborough, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Scarborough High School located in Scarborough, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Brunswick High School located in Brunswick, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Sanford High School located in Sanford, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Biddeford High School located in Biddeford, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Westbrook High School located in Westbrook, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Windham High School located in Windham, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Cony located in Augusta, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Maine Arts Academy School located in Augusta, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Maine Virtual Academy located in Augusta, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Gorham High School located in Gorham, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Waterville Senior High School located in Waterville, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: York High School located in York, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Falmouth High School located in Falmouth, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Orono High School located in Orono, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Kennebunk High School located in Kennebunk, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Wells High School located in Wells, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Robert W Traip Academy located in Kittery, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Bonny Eagle High School located in Standish, Maine</t>
-  </si>
-  <si>
-    <t>US news for High School: Mt Ararat High School located in Topsham, Maine</t>
   </si>
 </sst>
 </file>
@@ -566,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,264 +441,162 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
